--- a/data/D_ÓRGANOS ESPECIALES.xlsx
+++ b/data/D_ÓRGANOS ESPECIALES.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{904D06AC-C5B8-4098-8EF6-CCFF5FA95EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36D8130-48C3-4699-A3DA-C938B161F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3070C06F-B46C-4DEF-A848-FC408455D654}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{64534E8B-BD04-44D7-833B-5A38EAFEFF78}"/>
   </bookViews>
   <sheets>
-    <sheet name="ÓRGANOS ESPECIALES" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
     <t>ANEXO</t>
   </si>
   <si>
-    <t xml:space="preserve">   LEON MENDOZA JUAN CELESTINO</t>
+    <t xml:space="preserve">   GRANDA LIZANO JULIO MARCELO</t>
   </si>
   <si>
     <t xml:space="preserve">  Presidente - COMITÉ ELECTORAL UNIVERSITARIO UNAC.</t>
@@ -69,34 +69,34 @@
     <t>CEU.</t>
   </si>
   <si>
-    <t>124-2023-CU.</t>
+    <t>001-2024-AU.</t>
   </si>
   <si>
     <t>453-1873</t>
   </si>
   <si>
-    <t>jcleonm@unac.edu.pe</t>
+    <t>jmgrandal@unac.edu.pe</t>
   </si>
   <si>
     <t>ceu@unac.edu.pe</t>
   </si>
   <si>
-    <t>MONCADA SALCEDO LUIS ENRIQUE</t>
+    <t>ARELLANO UBILLUZ PABLO GODOFREDO</t>
   </si>
   <si>
     <t>Presidente - COMISIÓN PERMANENTE DE FISCALIZACIÓN</t>
   </si>
   <si>
-    <t>010-2023-AU.</t>
-  </si>
-  <si>
-    <t>lemoncadas@unac.edu.pe</t>
+    <t>010-2024-AU.</t>
+  </si>
+  <si>
+    <t>pgarellanou@unac.edu.pe</t>
   </si>
   <si>
     <t>ofic.cpf@unac.edu.pe</t>
   </si>
   <si>
-    <t>FERRER MEJÍA LUCIO ARNULFO</t>
+    <t>BAZÁN BACA JUAN FRANCISCO</t>
   </si>
   <si>
     <t>Defensor - DEFENSORIA UNIVERSITARIA - UNAC.</t>
@@ -105,16 +105,16 @@
     <t>ODU.</t>
   </si>
   <si>
-    <t>006-2023-AU.</t>
-  </si>
-  <si>
-    <t>laferrerm@unac.edu.pe</t>
+    <t>003-2024-AU.</t>
+  </si>
+  <si>
+    <t>jfbazanb@unac.edu.pe</t>
   </si>
   <si>
     <t>odu@unac.edu.pe</t>
   </si>
   <si>
-    <t>CÁCEDA AYLLÓN ROGELIO CÉSAR</t>
+    <t>GARCÍA DÍAZ BERTILA LIDUVINA</t>
   </si>
   <si>
     <t>Presidente - TRIBUNAL DE HONOR UNIVERSITARIO</t>
@@ -123,13 +123,13 @@
     <t>TH.</t>
   </si>
   <si>
-    <t>004-2022-AU</t>
+    <t>002-2024-AU.</t>
   </si>
   <si>
     <t>420-1452</t>
   </si>
   <si>
-    <t>rccacedaa@unac.edu.pe</t>
+    <t>blgarciad@unac.edu.pe</t>
   </si>
   <si>
     <t>tribunal.honor@unac.edu.pe</t>
@@ -168,7 +168,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -223,35 +223,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -274,12 +254,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -289,10 +278,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -340,53 +340,53 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -426,17 +426,45 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Montserrat SemiBold"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEBDE14"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="8"/>
         <color auto="1"/>
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -469,12 +497,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -550,12 +572,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -630,12 +646,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -670,12 +680,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -710,12 +714,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -753,40 +751,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Montserrat SemiBold"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEBDE14"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -803,19 +767,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{413F377C-4A2C-47AC-99EB-DBC9EC86275B}" name="Tabla5" displayName="Tabla5" ref="A1:H6" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="A1:H6" xr:uid="{C773F7FF-76EE-40D5-8436-FE2919094FC5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E23CDC9-A0E3-4E9F-A277-8000E149A787}" name="Tabla1" displayName="Tabla1" ref="A1:H6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:H6" xr:uid="{9E23CDC9-A0E3-4E9F-A277-8000E149A787}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3B5C456A-A0ED-4CD3-9338-F93F9BB3D252}" name="APELLIDOS Y NOMBRES" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{97043E24-022E-4957-924B-AED5A00F027B}" name="CARGO" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D5992957-762A-461D-8D62-26D4CB6921B1}" name="SIGLA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9BE22236-D71D-40B9-8C66-8AF9319B2E48}" name="RESOL." dataDxfId="4" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="5" xr3:uid="{F6FF162D-F09F-4975-89DE-23E40B6EDFAC}" name="TELF. FIJO" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{0052346D-3382-4ABE-9836-EE2CCDCD2999}" name="CORREO INSTITUCIONAL" dataDxfId="2" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="7" xr3:uid="{69A36316-C3B7-4B0B-91C0-5B42578DD1EA}" name="CORREOS GENERAL" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{CD4539F7-04D7-4F9A-A40D-115F0C732B86}" name="ANEXO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{032E9581-73C1-4D4B-B611-10FA144C943B}" name="APELLIDOS Y NOMBRES" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CD37F8DD-042C-431A-B262-633BEEFFC835}" name="CARGO" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F763F01A-DB35-4F97-ACD6-AFB1363F1D92}" name="SIGLA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0F625622-6768-417B-BAB2-86929550ABCD}" name="RESOL." dataDxfId="5" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{82D30E88-06DA-4689-8CE5-C2D24785531A}" name="TELF. FIJO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{326CAEBC-E767-4AB8-931A-E35DE475F224}" name="CORREO INSTITUCIONAL" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="7" xr3:uid="{CEA0AFFF-2CD8-43BE-A1BB-D65E6D2C8F34}" name="CORREOS GENERAL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{7BDFE882-FF4E-4937-9BA3-48296D926F93}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1115,151 +1079,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8235E5C-088F-491A-B052-3313D7BB8F17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB631B75-FA18-442A-B19B-8D10F14B6763}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12" style="4"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="56.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="67.5">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="13">
         <v>1086</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="67.5">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" ht="78.75">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="13">
         <v>1086</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:8" ht="67.5">
+      <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="13">
         <v>1089</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="56.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:8" ht="67.5">
+      <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="13">
         <v>1110</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="56.25">
+    <row r="6" spans="1:8" ht="67.5">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -1287,21 +1248,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" display="mailto:oci@unac.edu.pe" xr:uid="{E3ABB5EA-7F1D-4700-B395-C0F234B9A4A4}"/>
-    <hyperlink ref="G3" r:id="rId2" display="mailto:ofic.cpf@unac.edu.pe" xr:uid="{12B7B349-ABB3-40D2-8DF1-84845B653EBD}"/>
-    <hyperlink ref="G4" r:id="rId3" display="mailto:odu@unac.edu.pe" xr:uid="{A0151A89-4B9E-4807-B786-9C4E11BCD136}"/>
-    <hyperlink ref="G5" r:id="rId4" display="mailto:tribunal.honor@unac.edu.pe" xr:uid="{C6DFC12E-4B80-4BC2-95CB-9ADD5210B250}"/>
-    <hyperlink ref="G2" r:id="rId5" xr:uid="{55D0B42D-0CA0-420A-B4B1-F84C145F52E1}"/>
-    <hyperlink ref="F2" r:id="rId6" xr:uid="{A149E688-DD09-4B6B-BA5B-FC6C81E8F8AE}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{A7F14147-C3BC-4BE7-8D8C-0C7593EDC37E}"/>
-    <hyperlink ref="F4" r:id="rId8" xr:uid="{D1FEAEB8-74DA-47D6-8708-E10157469DA9}"/>
-    <hyperlink ref="F5" r:id="rId9" xr:uid="{408AA0F3-E003-40E6-9DB0-79CD8DB9FCF0}"/>
-    <hyperlink ref="F6" r:id="rId10" xr:uid="{C411CC01-F0EB-4902-85B2-49CE6574FE7D}"/>
-    <hyperlink ref="D2" r:id="rId11" xr:uid="{F15881A7-DFD4-4B7B-8AC4-41EBD24948A8}"/>
-    <hyperlink ref="D3" r:id="rId12" xr:uid="{14E2CBBF-8FD1-4033-A0CB-8F9E4418FE7C}"/>
-    <hyperlink ref="D4" r:id="rId13" xr:uid="{27301CBF-AFE7-4348-8626-40CD9C1AF814}"/>
-    <hyperlink ref="D5" r:id="rId14" xr:uid="{AD330A95-7A85-43A2-AB74-1A34115669C1}"/>
-    <hyperlink ref="D6" r:id="rId15" xr:uid="{43308A58-D734-4992-AC58-7C4B4EDB0657}"/>
+    <hyperlink ref="G6" r:id="rId1" display="mailto:oci@unac.edu.pe" xr:uid="{D73EDD15-0553-4596-A903-65F1CE8C9D05}"/>
+    <hyperlink ref="G3" r:id="rId2" display="mailto:ofic.cpf@unac.edu.pe" xr:uid="{2D0F757D-729D-460B-8169-D1677C54EEE2}"/>
+    <hyperlink ref="G4" r:id="rId3" display="mailto:odu@unac.edu.pe" xr:uid="{DE88B8F8-268D-41FC-AB90-78970F030434}"/>
+    <hyperlink ref="G5" r:id="rId4" display="mailto:tribunal.honor@unac.edu.pe" xr:uid="{01DBE8E2-F4EA-42DC-8260-B80131BD7FD7}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{1579394C-33BF-4B19-8F3D-48D6A2869A90}"/>
+    <hyperlink ref="F2" r:id="rId6" xr:uid="{DBBC4A93-6B58-47FA-B858-BBBA53E29B25}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{D0B0B4D4-3FB5-4D6F-B91F-7FE1565058C0}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{17028215-E44E-42BB-A280-E808A055FA8B}"/>
+    <hyperlink ref="F5" r:id="rId9" xr:uid="{66EE9BEC-FD7B-4742-B353-A9396308876F}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{01B600DF-240D-4224-A0A4-A4140B20001A}"/>
+    <hyperlink ref="D2" r:id="rId11" display="124-2023-CU." xr:uid="{1BD79CBD-CF7A-4C31-9ECA-0E0E46C9C480}"/>
+    <hyperlink ref="D3" r:id="rId12" display="010-2023-AU." xr:uid="{812EE87B-4F66-46B9-B84D-E715EA5191E7}"/>
+    <hyperlink ref="D4" r:id="rId13" display="006-2023-AU." xr:uid="{1D1DE600-66BF-4DF3-A16A-78BAA176BA36}"/>
+    <hyperlink ref="D5" r:id="rId14" display="004-2022-AU" xr:uid="{AD399829-B1F5-4982-B73C-B848BC149859}"/>
+    <hyperlink ref="D6" r:id="rId15" xr:uid="{E785E28A-ECD9-4E16-9D01-174EB6141986}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
